--- a/doc/210626_テーブル定義書.xlsx
+++ b/doc/210626_テーブル定義書.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="181">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -419,9 +419,6 @@
   </si>
   <si>
     <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>products_name_en_unique</t>
   </si>
   <si>
     <t>products_admin_id_index</t>
@@ -619,6 +616,10 @@
   </si>
   <si>
     <t>削除日時</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>products_name_en_index</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1379,123 +1380,132 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1508,12 +1518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1526,7 +1530,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,24 +1564,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1907,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>5</v>
@@ -1919,9 +1920,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5"/>
@@ -1931,9 +1932,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5"/>
@@ -1943,9 +1944,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="5"/>
@@ -1955,9 +1956,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5"/>
@@ -1967,9 +1968,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5"/>
@@ -1979,9 +1980,9 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="5"/>
@@ -1991,9 +1992,9 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="5"/>
@@ -2003,9 +2004,9 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="8"/>
@@ -2059,112 +2060,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="70"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2175,22 +2176,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2198,22 +2199,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2221,22 +2222,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2244,22 +2245,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2267,22 +2268,22 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="51" t="s">
+      <c r="E17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2290,22 +2291,22 @@
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="51" t="s">
+      <c r="E18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2313,22 +2314,22 @@
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="51" t="s">
+      <c r="E19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2336,22 +2337,22 @@
       <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="51" t="s">
+      <c r="E20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2359,22 +2360,22 @@
       <c r="A21" s="3">
         <v>8</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="50" t="s">
+      <c r="E21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2382,22 +2383,22 @@
       <c r="A22" s="3">
         <v>9</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="51" t="s">
+      <c r="F22" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2405,22 +2406,22 @@
       <c r="A23" s="3">
         <v>10</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="41" t="s">
+      <c r="C23" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="51" t="s">
+      <c r="E23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2428,22 +2429,22 @@
       <c r="A24" s="3">
         <v>11</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="50" t="s">
+      <c r="E24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2451,22 +2452,22 @@
       <c r="A25" s="3">
         <v>12</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="50" t="s">
+      <c r="E25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2474,22 +2475,22 @@
       <c r="A26" s="6">
         <v>13</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="43" t="s">
+      <c r="B26" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="52" t="s">
+      <c r="E26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2502,20 +2503,20 @@
       <c r="A29" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="35" t="s">
+      <c r="D29" s="39"/>
+      <c r="E29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2523,52 +2524,52 @@
       <c r="A30" s="9">
         <v>1</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="45" t="s">
+      <c r="D30" s="60"/>
+      <c r="E30" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="46"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="67" t="s">
+      <c r="B31" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41" t="s">
+      <c r="D31" s="74"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="42"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>3</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="58" t="s">
+      <c r="B32" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="34" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -2579,55 +2580,65 @@
       <c r="A35" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>1</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="D36" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
     </row>
     <row r="37" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="43" t="s">
+      <c r="B37" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
@@ -2635,16 +2646,6 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="D36:G36"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2683,112 +2684,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2799,22 +2800,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2822,22 +2823,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2845,22 +2846,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2868,22 +2869,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2891,22 +2892,22 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="50" t="s">
+      <c r="E17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2914,22 +2915,22 @@
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="41" t="s">
+      <c r="B18" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="50" t="s">
+      <c r="E18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2937,22 +2938,22 @@
       <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="52" t="s">
+      <c r="E19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2965,20 +2966,20 @@
       <c r="A22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="35" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2986,37 +2987,37 @@
       <c r="A23" s="9">
         <v>1</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="45" t="s">
+      <c r="D23" s="60"/>
+      <c r="E23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43" t="s">
+      <c r="D24" s="62"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="44"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="26" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3027,60 +3028,55 @@
       <c r="A27" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>1</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -3092,6 +3088,11 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3130,112 +3131,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3246,22 +3247,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3269,22 +3270,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3292,22 +3293,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3315,22 +3316,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3338,22 +3339,22 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="51" t="s">
+      <c r="F17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3361,22 +3362,22 @@
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="41" t="s">
+      <c r="B18" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="50" t="s">
+      <c r="E18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3384,22 +3385,22 @@
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="50" t="s">
+      <c r="E19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3407,22 +3408,22 @@
       <c r="A20" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="43" t="s">
+      <c r="B20" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="52" t="s">
+      <c r="E20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3435,20 +3436,20 @@
       <c r="A23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="35" t="s">
+      <c r="D23" s="39"/>
+      <c r="E23" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3456,52 +3457,52 @@
       <c r="A24" s="9">
         <v>1</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="45" t="s">
+      <c r="D24" s="60"/>
+      <c r="E24" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="46"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41" t="s">
+      <c r="D25" s="74"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="42"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>3</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3512,55 +3513,65 @@
       <c r="A29" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>1</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
     </row>
     <row r="31" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
@@ -3568,16 +3579,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="D30:G30"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3616,112 +3617,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3732,22 +3733,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3755,22 +3756,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3778,22 +3779,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3801,22 +3802,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3824,22 +3825,22 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="51" t="s">
+      <c r="F17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3847,22 +3848,22 @@
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="51" t="s">
+      <c r="F18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3870,22 +3871,22 @@
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="50" t="s">
+      <c r="E19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3893,22 +3894,22 @@
       <c r="A20" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="43" t="s">
+      <c r="B20" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="52" t="s">
+      <c r="E20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3921,20 +3922,20 @@
       <c r="A23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="35" t="s">
+      <c r="D23" s="39"/>
+      <c r="E23" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3942,50 +3943,50 @@
       <c r="A24" s="9">
         <v>1</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="45" t="s">
+      <c r="D24" s="60"/>
+      <c r="E24" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="46"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>3</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3996,43 +3997,38 @@
       <c r="A29" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
+      <c r="A30" s="22">
         <v>1</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="71"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -4044,6 +4040,11 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4082,112 +4083,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -4198,22 +4199,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4221,22 +4222,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4244,22 +4245,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4267,22 +4268,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="51" t="s">
+      <c r="E16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4290,22 +4291,22 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="51" t="s">
+      <c r="F17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4313,22 +4314,22 @@
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="51" t="s">
+      <c r="F18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4336,22 +4337,22 @@
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="51" t="s">
+      <c r="F19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4359,22 +4360,22 @@
       <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="51" t="s">
+      <c r="F20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4382,22 +4383,22 @@
       <c r="A21" s="3">
         <v>8</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="51" t="s">
+      <c r="F21" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4405,22 +4406,22 @@
       <c r="A22" s="3">
         <v>9</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="41" t="s">
+      <c r="B22" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="50" t="s">
+      <c r="E22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4428,22 +4429,22 @@
       <c r="A23" s="3">
         <v>10</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="41" t="s">
+      <c r="B23" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="50" t="s">
+      <c r="E23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4451,22 +4452,22 @@
       <c r="A24" s="6">
         <v>11</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="43" t="s">
+      <c r="B24" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="52" t="s">
+      <c r="E24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4479,20 +4480,20 @@
       <c r="A27" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="35" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4500,52 +4501,52 @@
       <c r="A28" s="9">
         <v>1</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="45" t="s">
+      <c r="D28" s="60"/>
+      <c r="E28" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="46"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41" t="s">
+      <c r="D29" s="74"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>3</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="32" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -4556,55 +4557,65 @@
       <c r="A33" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>1</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="64"/>
     </row>
     <row r="35" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
@@ -4612,16 +4623,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="D34:G34"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4660,112 +4661,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -4776,22 +4777,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4799,22 +4800,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4822,22 +4823,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4845,22 +4846,22 @@
       <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="52" t="s">
+      <c r="E16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4873,37 +4874,37 @@
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="35" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="22">
         <v>1</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -4911,21 +4912,21 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4980,112 +4981,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -5096,22 +5097,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5119,22 +5120,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5142,22 +5143,22 @@
       <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="53" t="s">
+      <c r="F15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5170,41 +5171,41 @@
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="35" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="39" t="s">
+      <c r="D19" s="78"/>
+      <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -5215,35 +5216,35 @@
       <c r="A22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="22">
         <v>1</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5279,8 +5280,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -5299,112 +5300,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -5415,22 +5416,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5438,22 +5439,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5461,22 +5462,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5484,22 +5485,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5507,22 +5508,22 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="51" t="s">
+      <c r="F17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5530,22 +5531,22 @@
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="51" t="s">
+      <c r="F18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5553,22 +5554,22 @@
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="51" t="s">
+      <c r="F19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5576,22 +5577,22 @@
       <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="51" t="s">
+      <c r="F20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5599,22 +5600,22 @@
       <c r="A21" s="3">
         <v>8</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="51" t="s">
+      <c r="F21" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5622,22 +5623,22 @@
       <c r="A22" s="3">
         <v>9</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="51" t="s">
+      <c r="F22" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5645,22 +5646,22 @@
       <c r="A23" s="3">
         <v>10</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="51" t="s">
+      <c r="F23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5668,22 +5669,22 @@
       <c r="A24" s="3">
         <v>11</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="50" t="s">
+      <c r="E24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5691,22 +5692,22 @@
       <c r="A25" s="3">
         <v>12</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="50" t="s">
+      <c r="E25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5714,22 +5715,22 @@
       <c r="A26" s="6">
         <v>13</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="43" t="s">
+      <c r="B26" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="52" t="s">
+      <c r="E26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5742,20 +5743,20 @@
       <c r="A29" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="35" t="s">
+      <c r="D29" s="39"/>
+      <c r="E29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5763,97 +5764,95 @@
       <c r="A30" s="9">
         <v>1</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="45" t="s">
+      <c r="D30" s="60"/>
+      <c r="E30" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="46"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="67" t="s">
+      <c r="B31" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="42"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>3</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="67" t="s">
+      <c r="B32" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>4</v>
       </c>
-      <c r="B33" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="67" t="s">
+      <c r="B33" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>5</v>
       </c>
-      <c r="B34" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="67" t="s">
+      <c r="B34" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>6</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="37" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -5864,55 +5863,57 @@
       <c r="A38" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41"/>
     </row>
     <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
     </row>
     <row r="40" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>2</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="D39:G39"/>
@@ -5923,16 +5924,6 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5971,112 +5962,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="70"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -6087,22 +6078,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6110,22 +6101,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6133,22 +6124,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6156,22 +6147,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6179,22 +6170,22 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="50" t="s">
+      <c r="E17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6202,22 +6193,22 @@
       <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="43" t="s">
+      <c r="B18" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="52" t="s">
+      <c r="E18" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6230,41 +6221,41 @@
       <c r="A21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="35" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="A22" s="22">
         <v>1</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="39" t="s">
+      <c r="C22" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="78"/>
+      <c r="E22" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -6275,35 +6266,35 @@
       <c r="A25" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+      <c r="A26" s="22">
         <v>1</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
+      <c r="D26" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="14">
